--- a/biology/Histoire de la zoologie et de la botanique/Robert_Ulanowicz/Robert_Ulanowicz.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Robert_Ulanowicz/Robert_Ulanowicz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Robert Edward Ulanowicz, né le 17 septembre 1943 à Baltimore, dans le Maryland, est un théoricien écologiste et philosophe américain d'ascendance polonaise qui, dans sa recherche d'une théorie unifiée de l'écologie a formulé un paradigme qu'il appelle le « Processus écologique »[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Robert Edward Ulanowicz, né le 17 septembre 1943 à Baltimore, dans le Maryland, est un théoricien écologiste et philosophe américain d'ascendance polonaise qui, dans sa recherche d'une théorie unifiée de l'écologie a formulé un paradigme qu'il appelle le « Processus écologique ». 
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a servi comme Professeur d'écologie théorique à l'Université du Maryland au Centre pour l'Environnement et la Science du Chesapeake Laboratoire de biologie, jusqu'à sa retraite en 2008. Ulanowicz a reçu ses BS[Quoi ?] et Doctorat en génie chimique à l'Université Johns-Hopkins respectivement en 1964 et 1968.
-Ulanowicz réside actuellement[évasif] à Gainesville (Floride), où il occupe un poste de Professeur par Courtoisie[Quoi ?] dans le Département de Biologie de l'Université de Floride. Depuis son déménagement en Floride, il est conseiller scientifique à l'Institut Howard T. Odum de Floride, une organisation destinée à la préservation et à la protection de la nature [2].
+Ulanowicz réside actuellement[évasif] à Gainesville (Floride), où il occupe un poste de Professeur par Courtoisie[Quoi ?] dans le Département de Biologie de l'Université de Floride. Depuis son déménagement en Floride, il est conseiller scientifique à l'Institut Howard T. Odum de Floride, une organisation destinée à la préservation et à la protection de la nature .
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Pensée</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ulanowicz utilise des techniques issues de la théorie de l'information et de la thermodynamique pour étudier l'organisation des flux d'énergie et de nutriments au sein des écosystèmes. Bien que ses idées aient été principalement appliquées en écologie, nombre de ses concepts sont abstraits et ont été appliqués à d'autres domaines dans lesquels des réseaux de flux apparaissent, tels que la psychologie et l'économie.
 Bien qu'Ulanowicz ait commencé sa carrière en modélisant des systèmes écologiques en utilisant des équations différentielles, il a rapidement atteint les limites de cette approche. Réalisant que tout écosystème est un système complexe, il a décidé de s'éloigner de ce qu'il considérait comme l'utilisation inappropriée de l'approche réductionniste, et a plutôt commencé à travailler au développement de mesures théoriques de l'écosystème dans son ensemble, comme l'ascendance. Peu à peu, il en est venu à comprendre que le comportement de l'écosystème n'est pas simplement une question de «mécanique avec bruit», mais plutôt une interaction complexe entre des tendances opposées - auto-organisation autocatalytique et décroissance entropique. Cette conversation naturelle pourrait être suivie quantitativement en utilisant des mesures théoriques de l'information appliquées aux réseaux de processus trophiques.
@@ -577,7 +593,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Ulanowicz est l'auteur ou le co-auteur de plus de deux cents articles en écologie théorique et dans des domaines connexes de la philosophie, en particulier ceux traitant de l'autocatalyse et de la causalité.
 (en) A third window: natural life beyond Newton and Darwin, Templeton Foundation Press (2009)  (ISBN 159947154X) - Une description de la nouvelle métaphysique d'Ulanowicz.
@@ -610,9 +628,11 @@
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ulanowicz a été récipiendaire en 2007 de la Médaille Prigogine pour ses recherches dans le domaine des systèmes écologiques[3]. Il a participé en 2007 au projet de la Bourse de Visions[Quoi ?][4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ulanowicz a été récipiendaire en 2007 de la Médaille Prigogine pour ses recherches dans le domaine des systèmes écologiques. Il a participé en 2007 au projet de la Bourse de Visions[Quoi ?].
 </t>
         </is>
       </c>
